--- a/MPC/data.xlsx
+++ b/MPC/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3933840715541581</v>
+        <v>-0.9222152091606985</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9143851061413613</v>
+        <v>-0.4655822261782003</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -471,4202 +471,4216 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4570287241431563</v>
+        <v>0.186037683064789</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7004310901574673</v>
+        <v>-0.07868340017674447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2670714744268848</v>
+        <v>-0.09100068881899435</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7832638688749572</v>
+        <v>-0.2781427389113693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9854780739409343</v>
+        <v>0.1490013271638695</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4218598310146833</v>
+        <v>-0.1840902435625038</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3323241237578239</v>
+        <v>-0.2748088172792725</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1622040045031253</v>
+        <v>-0.3689252197892305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2825502712741679</v>
+        <v>-0.1921059028593273</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9793019345792084</v>
+        <v>-0.2926567553310415</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.463901010853834</v>
+        <v>-0.09623766824439101</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5172268255277956</v>
+        <v>-0.009496130158281491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4549535926168042</v>
+        <v>-0.3864578022546441</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8150762354171384</v>
+        <v>-0.8121820172179726</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.202284749543888</v>
+        <v>-0.4217511623423032</v>
       </c>
       <c r="D6" t="n">
-        <v>1.329853667245444</v>
+        <v>-0.2911519818392213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9043229891484041</v>
+        <v>0.4303040896223331</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.866199591152351</v>
+        <v>0.8588937975262769</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4951860003574092</v>
+        <v>-1.228629365036863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7514042315715904</v>
+        <v>-1.081631026731832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8016283729284706</v>
+        <v>-0.4498595492712718</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7434680762413304</v>
+        <v>0.5339471488190601</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.53495888570846</v>
+        <v>-0.06693340814892654</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.136651443797398</v>
+        <v>1.120995451777817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.04154493703284579</v>
+        <v>0.565336714155763</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2126359801272706</v>
+        <v>-0.7367753822470333</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.641077397377036</v>
+        <v>-0.2257679607574356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8696704802222595</v>
+        <v>0.9670623867362544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4959678372939065</v>
+        <v>-0.1134738165577827</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4943028657814064</v>
+        <v>0.5918775606706028</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.109435739718998</v>
+        <v>0.02961700818692967</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3787580096496826</v>
+        <v>-0.5584508307741509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.7713094158599283</v>
+        <v>-0.9756675239670785</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3933120957465084</v>
+        <v>0.3736571655954293</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1706827728824716</v>
+        <v>0.1713449533343574</v>
       </c>
       <c r="D11" t="n">
-        <v>1.183439518109141</v>
+        <v>0.2253275050503098</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4933798666903146</v>
+        <v>-0.5763097508521842</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4974659811784092</v>
+        <v>-0.6802506693720027</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5207698145919057</v>
+        <v>-0.7098734045088908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3762867231386726</v>
+        <v>0.3882208940109622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7063074523432902</v>
+        <v>-0.04652160006867145</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7255398172792666</v>
+        <v>-0.6114800709710588</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06361269736488764</v>
+        <v>-1.727169935041557</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4964352238690062</v>
+        <v>-0.9071099609870064</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1578896331191606</v>
+        <v>0.9201370813012544</v>
       </c>
       <c r="B14" t="n">
-        <v>0.555020048695352</v>
+        <v>0.1645473649032705</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3677482459661255</v>
+        <v>-1.310901563941606</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8503001424886352</v>
+        <v>-0.1141516064580625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3692385528304925</v>
+        <v>0.4224773270360371</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4030426559273312</v>
+        <v>-0.7737243179523541</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5904027765352344</v>
+        <v>-0.6092070696020999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6580979786546776</v>
+        <v>0.2943871768141098</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3173533827545465</v>
+        <v>0.6475330403223178</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3426763276891986</v>
+        <v>0.1191854741104243</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6947581694673645</v>
+        <v>0.1718446182886734</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6175591643853064</v>
+        <v>-0.6484720835629049</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5656915769529194</v>
+        <v>0.2251289432750283</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9090708953462265</v>
+        <v>-0.8224363285832066</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.112273280860901</v>
+        <v>0.8997335569831155</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4156746291720011</v>
+        <v>-0.2570726494301386</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4603555261367733</v>
+        <v>-0.6932134431655232</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2853768896311091</v>
+        <v>-0.5041186170479983</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.396795195301459</v>
+        <v>1.246102743169737</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8716599620502121</v>
+        <v>-0.8089363575916729</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.06873891473926208</v>
+        <v>-0.6835463621048881</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.543206377484456</v>
+        <v>-0.3450185451849215</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4648175039062117</v>
+        <v>-0.02956730615557037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09124069415053834</v>
+        <v>-2.031508251645269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.943394045645229</v>
+        <v>0.9596588021511723</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9054867965718432</v>
+        <v>-0.9537570632912498</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2992771549020767</v>
+        <v>-0.9804895482924261</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6398282771773214</v>
+        <v>-0.8438558398749731</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6470345231907997</v>
+        <v>0.3572108738414694</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8026493011072728</v>
+        <v>0.6640731997395664</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8752117913525109</v>
+        <v>-0.08511238875558313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6593303165967626</v>
+        <v>-0.3654952607812513</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6606720031476871</v>
+        <v>-0.7359509640280808</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8057343027536312</v>
+        <v>-0.7390919866564618</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01714227896027197</v>
+        <v>0.6097559030138527</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8901365663315011</v>
+        <v>0.5185757366383602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.4349789741608885</v>
+        <v>0.475021710601168</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1307722485942175</v>
+        <v>-0.6107762685674794</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9808359659708806</v>
+        <v>-0.131070530144468</v>
       </c>
       <c r="D23" t="n">
-        <v>1.548083986387519</v>
+        <v>-0.3155809749771973</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7873331156854799</v>
+        <v>0.60662460706145</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1853393362302933</v>
+        <v>0.9268889652769243</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3349841159749702</v>
+        <v>-0.1847096375068137</v>
       </c>
       <c r="D24" t="n">
-        <v>1.126418879923212</v>
+        <v>-0.8563753156996841</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.9043726098569758</v>
+        <v>0.4049567423179552</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9092034388083148</v>
+        <v>0.3604492563994248</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7869978304601303</v>
+        <v>0.8855727029533709</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5748147846622518</v>
+        <v>0.7609621560910006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.5328799450845538</v>
+        <v>0.6228562442601544</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.8201151731176566</v>
+        <v>-0.386735998316696</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2318851086823178</v>
+        <v>1.39505554326975</v>
       </c>
       <c r="D26" t="n">
-        <v>1.003798244343542</v>
+        <v>1.424751640768183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1946699496358759</v>
+        <v>0.5885100302990367</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4159041908132282</v>
+        <v>-0.4513032087784641</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8828833915030915</v>
+        <v>1.101142680261493</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5604086895507536</v>
+        <v>0.6634859457117143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.9208503763604232</v>
+        <v>0.4397853814748345</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1155847437776323</v>
+        <v>0.4399028263561029</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.4678326273260454</v>
+        <v>1.552191161527568</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5778475002994351</v>
+        <v>0.1938598887289331</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9739001350743026</v>
+        <v>0.8822113875446891</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.873816998239167</v>
+        <v>0.9933575434883852</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.9771598227741897</v>
+        <v>2.176114453164187</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2578384953741359</v>
+        <v>0.6972468394147534</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.5259846953074458</v>
+        <v>0.01115868185681057</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4643515962739928</v>
+        <v>0.3427742462723387</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.5686794636058087</v>
+        <v>2.736463916975026</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2809602932047381</v>
+        <v>2.443102376717542</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4249429474387949</v>
+        <v>0.9664249474067919</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2139149165528722</v>
+        <v>-0.2574373217662247</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.9021553049515962</v>
+        <v>0.727976198231346</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.8045920487920142</v>
+        <v>1.861429759855203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1677159257377794</v>
+        <v>-0.6234143872485693</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9877736927794052</v>
+        <v>0.8389871662060993</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2369141949648685</v>
+        <v>1.20872691897685</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6255519176339447</v>
+        <v>0.5721884589408256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3199774589073612</v>
+        <v>0.4604563843858507</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1105338700611727</v>
+        <v>0.3789252475071434</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3396731514323735</v>
+        <v>0.8793089658808858</v>
       </c>
       <c r="D33" t="n">
-        <v>1.198941333257789</v>
+        <v>0.9757006115060737</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.926914463718445</v>
+        <v>-0.736444381131977</v>
       </c>
       <c r="B34" t="n">
-        <v>0.882225819909489</v>
+        <v>0.3961655349633131</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7886375855664591</v>
+        <v>0.8458361132987253</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8390558734952458</v>
+        <v>1.5001872161707</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.6896778848299159</v>
+        <v>0.3882558221938417</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3339478139727097</v>
+        <v>-0.7727540679913298</v>
       </c>
       <c r="C35" t="n">
-        <v>1.623045565327623</v>
+        <v>-0.3692465738372623</v>
       </c>
       <c r="D35" t="n">
-        <v>1.632001744464553</v>
+        <v>0.7847051146543883</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2533830417727572</v>
+        <v>-0.9405851922120778</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8827394688054371</v>
+        <v>-0.5662511516201252</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1642325974374727</v>
+        <v>-0.2856315122348155</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7518107387111258</v>
+        <v>-0.6081191698462955</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.3693070261127878</v>
+        <v>-0.9076957780158204</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8117799007651938</v>
+        <v>-0.02251594425177084</v>
       </c>
       <c r="C37" t="n">
-        <v>0.296517021290518</v>
+        <v>-1.084622935640519</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8894214450031359</v>
+        <v>-1.089339165196935</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9483954785432851</v>
+        <v>-0.6134435511052838</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.4038387653925606</v>
+        <v>0.703130596754846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8503741564928921</v>
+        <v>-1.939489766034394</v>
       </c>
       <c r="D38" t="n">
-        <v>1.350717457357998</v>
+        <v>-0.07538734936858557</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.630693445085625</v>
+        <v>-0.8051304710245508</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7153180390476226</v>
+        <v>0.2324700388160372</v>
       </c>
       <c r="C39" t="n">
-        <v>1.465219265695462</v>
+        <v>-2.604454402373948</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5963096767678266</v>
+        <v>0.5205804383938315</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2333392205194684</v>
+        <v>-0.08932693291238203</v>
       </c>
       <c r="B40" t="n">
-        <v>0.860250223247089</v>
+        <v>-0.3000063167484106</v>
       </c>
       <c r="C40" t="n">
-        <v>1.026172513107945</v>
+        <v>-2.921550054155396</v>
       </c>
       <c r="D40" t="n">
-        <v>1.157334020992454</v>
+        <v>-0.5289050010980734</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4788837257145246</v>
+        <v>-0.06928129232297375</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6682870964668688</v>
+        <v>0.3722882973515409</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6664584326010262</v>
+        <v>-2.69220940920625</v>
       </c>
       <c r="D41" t="n">
-        <v>1.752159948882452</v>
+        <v>0.9454340654613256</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6584645191762388</v>
+        <v>-0.6662127676023013</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5397199358775908</v>
+        <v>0.283163130897188</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9500820282044524</v>
+        <v>-1.586349729386834</v>
       </c>
       <c r="D42" t="n">
-        <v>1.489270229436398</v>
+        <v>-1.24082132682825</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.139705352043102</v>
+        <v>-0.3503096264642127</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4927268800843001</v>
+        <v>0.1953695208822095</v>
       </c>
       <c r="C43" t="n">
-        <v>1.310938565346778</v>
+        <v>-1.28075924085067</v>
       </c>
       <c r="D43" t="n">
-        <v>1.418526160060908</v>
+        <v>1.073742139227875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4463439245097376</v>
+        <v>-0.4069469131444323</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1163730663956968</v>
+        <v>0.4349416514007127</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8019920906281616</v>
+        <v>-0.8675549290754463</v>
       </c>
       <c r="D44" t="n">
-        <v>1.37626638408186</v>
+        <v>-0.3787054039292961</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.7954064566981314</v>
+        <v>-0.01333805364133278</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1926779626237687</v>
+        <v>0.5521088181122036</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7681712301293444</v>
+        <v>-1.310243980414897</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6933125395840627</v>
+        <v>0.5863659453271796</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.3190563779418305</v>
+        <v>-0.1940261054188119</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9324033899841475</v>
+        <v>0.1627225460035346</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.05111661765939818</v>
+        <v>-0.9042958730606756</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3339720210514557</v>
+        <v>0.162718111369917</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9010367739857357</v>
+        <v>-0.2488470579857627</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5332560364412138</v>
+        <v>-0.7438670845450635</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.4629113281409744</v>
+        <v>-1.091998006437092</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9133201343740427</v>
+        <v>0.293867013615042</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.2308925737810299</v>
+        <v>-0.6466268630188907</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9568037149616606</v>
+        <v>0.2738130606128271</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.147153868401908</v>
+        <v>-1.579369228435028</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5363607894055501</v>
+        <v>-1.136847895413281</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.7926549849058164</v>
+        <v>-0.08590666043937456</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2519082348558905</v>
+        <v>-0.5634661518280757</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.287952282933938</v>
+        <v>-1.569123984035721</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536145939409469</v>
+        <v>0.3299977582520452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.4971598598724103</v>
+        <v>-0.3525214383753024</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3424550109777709</v>
+        <v>0.8710647033082575</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.09538386534230722</v>
+        <v>-1.794626670334008</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5448892557456545</v>
+        <v>-1.064198735175478</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.5623016491935562</v>
+        <v>0.7113303185743249</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7611820469252493</v>
+        <v>0.6961899607844477</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1037264529141637</v>
+        <v>-1.127737197306485</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4099452474775019</v>
+        <v>1.444952998518141</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7725285636142698</v>
+        <v>0.7014431436529776</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2249853537940518</v>
+        <v>-0.9557986951442907</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.507993542192972</v>
+        <v>0.418332297754076</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7249328981653402</v>
+        <v>0.8575205369251833</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.06412946283817589</v>
+        <v>-0.8180865246106164</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5831974978515195</v>
+        <v>0.5625170892366442</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4217208599602081</v>
+        <v>1.23480170950972</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6101042965729327</v>
+        <v>-0.03649074483219782</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.3567816525546426</v>
+        <v>0.6163746031101234</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.3730206735012842</v>
+        <v>-0.3058315448461972</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9426538620842506</v>
+        <v>0.8754187014865702</v>
       </c>
       <c r="D54" t="n">
-        <v>0.915223058334892</v>
+        <v>-0.09990160274526294</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8099085194972109</v>
+        <v>0.9223381901881249</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.009597872183829015</v>
+        <v>0.2906232585750472</v>
       </c>
       <c r="C55" t="n">
-        <v>0.279528890080757</v>
+        <v>1.196405483634624</v>
       </c>
       <c r="D55" t="n">
-        <v>0.27779393011196</v>
+        <v>0.02594009402851859</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.5829513703011844</v>
+        <v>0.2717102091086652</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.01482728795197041</v>
+        <v>-0.2361701677529968</v>
       </c>
       <c r="C56" t="n">
-        <v>1.063835405299431</v>
+        <v>2.415289131390544</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1094120046950303</v>
+        <v>0.5233423206606567</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.7935187471987157</v>
+        <v>-0.6136518093866961</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9916815753270198</v>
+        <v>0.09679781672904553</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9521878143125744</v>
+        <v>2.558286228294283</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1272839849820606</v>
+        <v>1.025771967058314</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.1018606555422388</v>
+        <v>0.6415798208427081</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.3236170881027265</v>
+        <v>-0.0300705991377983</v>
       </c>
       <c r="C58" t="n">
-        <v>0.009807170216943273</v>
+        <v>0.6622638480276967</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6430123577556592</v>
+        <v>1.053620662220388</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8998147202567934</v>
+        <v>-0.7973156264910539</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.7518999189685118</v>
+        <v>0.3707281876622208</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1985208171691632</v>
+        <v>0.6894095527424215</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01816740556759189</v>
+        <v>0.4809046364170598</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7855357819342033</v>
+        <v>-0.3845256020996148</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4446557546645094</v>
+        <v>0.3751501368134629</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.310360821615626</v>
+        <v>0.06880686689960182</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.090270050633573</v>
+        <v>0.4545683994584716</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.01005622227325143</v>
+        <v>0.2888701214005931</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.6278770225640071</v>
+        <v>-0.3616883956878314</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2936108705345467</v>
+        <v>-0.5063702290342819</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02847489082960204</v>
+        <v>0.5052682734771901</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.3214294730125653</v>
+        <v>0.7175976501659365</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.5211139840834984</v>
+        <v>-0.3847104645401427</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.1687177787043608</v>
+        <v>-0.3022789378310052</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.8546178834963832</v>
+        <v>-0.3492565148181759</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4232348132982904</v>
+        <v>0.9260100369463955</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6151036493863766</v>
+        <v>-0.9703489850072282</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.6066553293122543</v>
+        <v>0.6197397863769026</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.9592747920873056</v>
+        <v>-0.2805033231165097</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.0572584196684589</v>
+        <v>-0.1508653574003602</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2381036952901416</v>
+        <v>-0.3450885851703069</v>
       </c>
       <c r="C64" t="n">
-        <v>0.06662803053062331</v>
+        <v>1.544992227301725</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8250685304576831</v>
+        <v>-0.8792824345560768</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.3508954443241934</v>
+        <v>-0.655772627901583</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06088947885644247</v>
+        <v>-0.8559028796488872</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3981804136420131</v>
+        <v>0.916177974177908</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1953152157324377</v>
+        <v>-1.440521875182534</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.662894008567664</v>
+        <v>-0.2729515518323218</v>
       </c>
       <c r="B66" t="n">
-        <v>0.647729962703897</v>
+        <v>-0.01040639979378866</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1443139587399863</v>
+        <v>-0.6608258125824237</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.04171341999099364</v>
+        <v>-1.613757146028346</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1020787923075863</v>
+        <v>0.2792910753914535</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1347714683242267</v>
+        <v>0.1839379928369538</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7056614960887927</v>
+        <v>-0.6895920206542682</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3049578979190991</v>
+        <v>-0.2974491086386264</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1851350503277212</v>
+        <v>-0.4266295338739501</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4240869984145048</v>
+        <v>0.8018956495959635</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.7229070694872223</v>
+        <v>-0.3962707362344771</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3347446608462763</v>
+        <v>0.4533858397708745</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9801962804045312</v>
+        <v>0.2876094095653234</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.3193769368524217</v>
+        <v>-0.9198890348720818</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.2514654553490464</v>
+        <v>-0.513604876285141</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4631388703082188</v>
+        <v>0.7799526193039273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4292269399663735</v>
+        <v>-0.6332521663616959</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5405572348333614</v>
+        <v>0.7883063280445484</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6948658285688644</v>
+        <v>-0.2807229825598362</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1381669734775151</v>
+        <v>-0.8656603376694775</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5791473458211631</v>
+        <v>0.4509688282084949</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.2610154773754583</v>
+        <v>-0.9570405849683592</v>
       </c>
       <c r="C71" t="n">
-        <v>1.667348478641037</v>
+        <v>-0.5885170591215575</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5233493600631457</v>
+        <v>0.312044221862111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.6855612120625023</v>
+        <v>0.7635969732681736</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.07347528181963447</v>
+        <v>-0.6903060169108191</v>
       </c>
       <c r="C72" t="n">
-        <v>2.149655892190209</v>
+        <v>-0.4889699084409606</v>
       </c>
       <c r="D72" t="n">
-        <v>1.00195320393908</v>
+        <v>-0.7951627793962721</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8040291875169743</v>
+        <v>-0.237214595552437</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.0005261253399941879</v>
+        <v>-0.9248500461601341</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5826542703016452</v>
+        <v>0.3581674016787433</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9015316980437116</v>
+        <v>-0.8482331129007166</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.118857615057046</v>
+        <v>0.5630143054019483</v>
       </c>
       <c r="B74" t="n">
-        <v>0.425929042650673</v>
+        <v>-0.05888672649163551</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8544901963913305</v>
+        <v>0.2726460111244107</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2616707418916271</v>
+        <v>-1.371822283114558</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.02204665331573219</v>
+        <v>-0.6345252847365408</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08683604954083601</v>
+        <v>-0.3703443204388919</v>
       </c>
       <c r="C75" t="n">
-        <v>1.245483738067863</v>
+        <v>0.404111383403645</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8569252413143795</v>
+        <v>-0.459539922988521</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.4837438552680533</v>
+        <v>-0.8710697441059745</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3333405131494329</v>
+        <v>-0.7573676963669291</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8500955646428208</v>
+        <v>-0.3321538180250525</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9856293347741749</v>
+        <v>-0.6738599564209956</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.1474308756944334</v>
+        <v>0.2411717270611262</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2429010268322462</v>
+        <v>0.4295131620343933</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.04785936261383933</v>
+        <v>-1.633916155807191</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4862472141575522</v>
+        <v>-0.9836308518739223</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4095420307133486</v>
+        <v>0.9866149505844413</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8594388960612727</v>
+        <v>-0.1841822140975986</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.4187366129106235</v>
+        <v>-1.062429349159313</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3509753608379603</v>
+        <v>0.8884993780039013</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.5033150593972622</v>
+        <v>0.04460067375360155</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.8149144581379386</v>
+        <v>0.6764228396215954</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3827507487951506</v>
+        <v>0.3634712231644244</v>
       </c>
       <c r="D79" t="n">
-        <v>1.101063882106775</v>
+        <v>-0.2343248634726103</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.426137250069744</v>
+        <v>-0.3800100958405048</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8916088005297083</v>
+        <v>0.4288540513587433</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.3701121990509983</v>
+        <v>1.046615022306346</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.3114963789993507</v>
+        <v>0.6667383240441012</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.2541195080192415</v>
+        <v>0.860939961701457</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9705657949619051</v>
+        <v>0.6392010561714696</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.4272744672952312</v>
+        <v>0.6938636086389731</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.069632234864806</v>
+        <v>1.157312527838112</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1591942331057943</v>
+        <v>-0.8525646718034834</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.7420832133198714</v>
+        <v>0.4132296065111687</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1207506530199718</v>
+        <v>1.42245505089511</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7440387796602695</v>
+        <v>1.406285861231012</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.1057928593667607</v>
+        <v>-0.06272044998293969</v>
       </c>
       <c r="B83" t="n">
-        <v>0.499724460273073</v>
+        <v>0.09316143418078449</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.003792513397289587</v>
+        <v>0.2041635772328149</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.07640024687006142</v>
+        <v>1.252503487078122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.7401768570262561</v>
+        <v>-0.6601857564848135</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.5020759493211733</v>
+        <v>-0.7537158634063459</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1001580645718436</v>
+        <v>-0.4125485714515601</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.009983389608243604</v>
+        <v>0.2230641523134544</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1211026577927694</v>
+        <v>-0.5353585016510496</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8700318544125454</v>
+        <v>0.9585468895898317</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.6503327619013327</v>
+        <v>-1.44630771474735</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.3938497878151649</v>
+        <v>-0.9884949407975835</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.02052451892009799</v>
+        <v>-0.8842090825898863</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.2972507559805451</v>
+        <v>0.3674317422291828</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.5026403099323464</v>
+        <v>-1.485158730287476</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9435938946660001</v>
+        <v>1.07870099148568</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.3743361920754769</v>
+        <v>-0.992278903907017</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1076576006996017</v>
+        <v>-0.5542547851856625</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1221426884937487</v>
+        <v>-1.722803830271844</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02701629143619472</v>
+        <v>-0.05779506897783734</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.08688432822792413</v>
+        <v>-0.265120538008814</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9694482237638067</v>
+        <v>0.8967702799897221</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2736177391257264</v>
+        <v>-3.078264357343168</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1017390571962117</v>
+        <v>-0.5398880768612644</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.4408427234240235</v>
+        <v>-0.2775953541964797</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1023283533825898</v>
+        <v>0.1758126829802629</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7314685690457662</v>
+        <v>-2.841880104055181</v>
       </c>
       <c r="D89" t="n">
-        <v>1.004275475623993</v>
+        <v>1.627508773685284</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8154730895324434</v>
+        <v>0.2964546678107884</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.4943648290821558</v>
+        <v>-0.571901523266563</v>
       </c>
       <c r="C90" t="n">
-        <v>0.833738686389322</v>
+        <v>-1.16866610188965</v>
       </c>
       <c r="D90" t="n">
-        <v>1.082017882484192</v>
+        <v>-0.712975991789263</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5932368754915374</v>
+        <v>0.6984250475559561</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.5016914969012898</v>
+        <v>0.3564723562387302</v>
       </c>
       <c r="C91" t="n">
-        <v>1.232052123341921</v>
+        <v>-0.5492963391325262</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05543680073677842</v>
+        <v>0.130457186386551</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.03321530752900914</v>
+        <v>-0.5014205548606339</v>
       </c>
       <c r="B92" t="n">
-        <v>0.674318188314093</v>
+        <v>0.553723553291033</v>
       </c>
       <c r="C92" t="n">
-        <v>1.988778958374381</v>
+        <v>0.3558422115752422</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.435710229418225</v>
+        <v>0.2201606644667893</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.6869287435973983</v>
+        <v>-0.4893437662823592</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7895173770107033</v>
+        <v>-0.2398660822420151</v>
       </c>
       <c r="C93" t="n">
-        <v>2.157656646599934</v>
+        <v>0.2967397362489889</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.214138244450918</v>
+        <v>0.6573091573265769</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.5005643976210201</v>
+        <v>0.1735030016909009</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1339915117485144</v>
+        <v>-0.1618798815858951</v>
       </c>
       <c r="C94" t="n">
-        <v>3.084325549825239</v>
+        <v>-0.442303475169212</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6276110543508624</v>
+        <v>-0.06233761176075066</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4125280533920548</v>
+        <v>0.8294949373861322</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.832189445541943</v>
+        <v>0.8415516614931642</v>
       </c>
       <c r="C95" t="n">
-        <v>3.165932973631624</v>
+        <v>-0.5127725564647284</v>
       </c>
       <c r="D95" t="n">
-        <v>2.23076586360552</v>
+        <v>-0.2798555162423768</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1081710276044336</v>
+        <v>0.4345982610570416</v>
       </c>
       <c r="B96" t="n">
-        <v>0.19466849315496</v>
+        <v>-0.3105620478161062</v>
       </c>
       <c r="C96" t="n">
-        <v>1.189430783285218</v>
+        <v>0.8030980278674212</v>
       </c>
       <c r="D96" t="n">
-        <v>0.68434874761535</v>
+        <v>1.250851584389731</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.0689636974656167</v>
+        <v>-0.4969268581177124</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4499445974588685</v>
+        <v>-0.2868028178561863</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9146248019564569</v>
+        <v>1.062329033805967</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5266458789039596</v>
+        <v>0.5893046821313156</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.4833647975439392</v>
+        <v>-0.5353611515382446</v>
       </c>
       <c r="B98" t="n">
-        <v>0.09229370101825651</v>
+        <v>-0.8425777200520626</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9559543730334888</v>
+        <v>0.3486138420278377</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9408760584735935</v>
+        <v>-0.2795653083247897</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8179437644373915</v>
+        <v>0.007411305952591096</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6172788771377462</v>
+        <v>0.22002254359374</v>
       </c>
       <c r="C99" t="n">
-        <v>0.09378330690190781</v>
+        <v>-0.6470684311143814</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5363848408540666</v>
+        <v>-1.36223384437224</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6715553864919763</v>
+        <v>0.6903978284321082</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6481146715415205</v>
+        <v>0.26854005121951</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7182801194244481</v>
+        <v>-0.4087288903326596</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8445988790914528</v>
+        <v>-0.03944579673479851</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9227620906345566</v>
+        <v>-0.07410557363935544</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1522589712676501</v>
+        <v>-0.884343755171247</v>
       </c>
       <c r="C101" t="n">
-        <v>1.508136751165374</v>
+        <v>0.5216851853757237</v>
       </c>
       <c r="D101" t="n">
-        <v>1.718439167221455</v>
+        <v>0.6869796895723504</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.2069701802688824</v>
+        <v>0.06701884037338579</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3422878941201182</v>
+        <v>-0.6660850807706638</v>
       </c>
       <c r="C102" t="n">
-        <v>1.477414691107275</v>
+        <v>0.4002786488705277</v>
       </c>
       <c r="D102" t="n">
-        <v>1.673513802982595</v>
+        <v>-0.5816112881635909</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4536735285810165</v>
+        <v>0.5684892560522998</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5616162015989041</v>
+        <v>-0.03367210454180625</v>
       </c>
       <c r="C103" t="n">
-        <v>0.593470408732221</v>
+        <v>-0.07304352153980055</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9731866654733085</v>
+        <v>-1.295257287406056</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.3809776852551103</v>
+        <v>-0.1425340077170327</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.6844316379464899</v>
+        <v>0.5619169577467511</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9174874664669986</v>
+        <v>0.4845808032534961</v>
       </c>
       <c r="D104" t="n">
-        <v>1.074599561159823</v>
+        <v>0.005402467002269595</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.8580257011912096</v>
+        <v>0.7100417706153614</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6273875212491271</v>
+        <v>0.3793348987345655</v>
       </c>
       <c r="C105" t="n">
-        <v>1.009814628928659</v>
+        <v>0.6464399720410501</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03778959198742457</v>
+        <v>0.5976533588623892</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.7246751593306617</v>
+        <v>0.06021266602592079</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4545432804621123</v>
+        <v>-0.4067968846799823</v>
       </c>
       <c r="C106" t="n">
-        <v>2.108262869778627</v>
+        <v>1.441628499733931</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5373388254381598</v>
+        <v>1.043522395214487</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.8132622222806083</v>
+        <v>0.1423150782709994</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2766852730023708</v>
+        <v>0.9110922132992434</v>
       </c>
       <c r="C107" t="n">
-        <v>2.897009367714262</v>
+        <v>1.042102789531532</v>
       </c>
       <c r="D107" t="n">
-        <v>2.024706259867138</v>
+        <v>0.6733639521254131</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.1279868929228736</v>
+        <v>0.5569408324759206</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.8746736749979493</v>
+        <v>-0.8386626979018725</v>
       </c>
       <c r="C108" t="n">
-        <v>0.09309789253478644</v>
+        <v>1.068449914930232</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9459374639677096</v>
+        <v>1.193137798970151</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.505333279741166</v>
+        <v>-0.688580815201931</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5681602838128825</v>
+        <v>0.007861969611368647</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.5316278472271113</v>
+        <v>0.8451899635406707</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.034279661985557</v>
+        <v>0.4302858666013863</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.4379224173342615</v>
+        <v>-0.3787142855013292</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2883054995960099</v>
+        <v>-0.6943066221461791</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.9392684473124225</v>
+        <v>0.1995206250860423</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4884311351200613</v>
+        <v>-0.3241105421433218</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.3674612676227949</v>
+        <v>-0.4442680982601483</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1808078690748169</v>
+        <v>0.2402210966253238</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.277786048361692</v>
+        <v>-0.6432928039514482</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.01525389801400931</v>
+        <v>-0.8554782809769399</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1826275084536129</v>
+        <v>-0.9573213919331549</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7540185629562319</v>
+        <v>0.1690030892282381</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.928102441539051</v>
+        <v>-1.042968241108386</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1387775809630837</v>
+        <v>-0.07697658066671093</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.2340617570588743</v>
+        <v>-0.8884515888740012</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.2922261840925824</v>
+        <v>-0.9735542518686426</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.717779586307088</v>
+        <v>-2.216340484055352</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8400368299601521</v>
+        <v>0.07829247117534938</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.5012349328793484</v>
+        <v>0.581989092287073</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.5602875838999324</v>
+        <v>-0.8760670282454848</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.084840424229803</v>
+        <v>-3.767015080020029</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7860499528176994</v>
+        <v>-1.28234349017013</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.7030443778810755</v>
+        <v>0.5158465322764851</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.9796302103810288</v>
+        <v>-0.189319443318908</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.3991222090228622</v>
+        <v>-1.427832006037533</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.08152925466449745</v>
+        <v>0.5135940334315411</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.4386854245756273</v>
+        <v>-0.6762472555085253</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6276531773882155</v>
+        <v>0.8552130786423915</v>
       </c>
       <c r="C116" t="n">
-        <v>0.291779251276559</v>
+        <v>-0.6327469178376516</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.7879561083173096</v>
+        <v>-0.75665555430797</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.9248781487680784</v>
+        <v>0.8780676483872141</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.5238401652586049</v>
+        <v>0.3409366190042487</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.01065158114487639</v>
+        <v>-0.7160557161172508</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08677768079354126</v>
+        <v>0.8500981556135655</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.2835215649014113</v>
+        <v>0.965065630741712</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.5121949422356324</v>
+        <v>-0.2735969490933565</v>
       </c>
       <c r="C118" t="n">
-        <v>0.712005974857447</v>
+        <v>0.2990457514123953</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1602843702021797</v>
+        <v>0.7185003595823591</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.9810606607264789</v>
+        <v>-0.03036765338818759</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8272064358918609</v>
+        <v>-0.8139599653864547</v>
       </c>
       <c r="C119" t="n">
-        <v>1.197802646520507</v>
+        <v>1.497285179477801</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.5432541387782861</v>
+        <v>0.4143661444482318</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.6690721932473496</v>
+        <v>0.4909934185775742</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.3728621343259941</v>
+        <v>0.6620052659168776</v>
       </c>
       <c r="C120" t="n">
-        <v>2.139106857004692</v>
+        <v>1.510654973413889</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3491448001021899</v>
+        <v>-0.4707305355962508</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.530284136804938</v>
+        <v>-0.9980355520098523</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.3412250532550873</v>
+        <v>-0.6715213597508063</v>
       </c>
       <c r="C121" t="n">
-        <v>1.744010154070164</v>
+        <v>1.864453812072449</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7313189758307521</v>
+        <v>-0.08601669058273426</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.07956729160187082</v>
+        <v>0.211653686773138</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1878923094945577</v>
+        <v>-0.1978409395958196</v>
       </c>
       <c r="C122" t="n">
-        <v>1.460155221687859</v>
+        <v>1.032049829282525</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5704776346356548</v>
+        <v>-0.6310148010396848</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.7551337636323669</v>
+        <v>-0.4054419746580968</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1881529987117561</v>
+        <v>0.2274292732026577</v>
       </c>
       <c r="C123" t="n">
-        <v>1.439578074966255</v>
+        <v>0.4609079365391159</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7012043874367071</v>
+        <v>-0.9103264651291184</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.811578711591038</v>
+        <v>-0.4015266409327749</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1529632125985874</v>
+        <v>0.5650314497558255</v>
       </c>
       <c r="C124" t="n">
-        <v>1.740120321864014</v>
+        <v>-0.3993724007533862</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6928943294677735</v>
+        <v>-0.2264186840713575</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.6063303768806769</v>
+        <v>0.7782367115690374</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6649473957301881</v>
+        <v>-0.3080723949355695</v>
       </c>
       <c r="C125" t="n">
-        <v>2.08346330509872</v>
+        <v>-0.8575925242254835</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7463208740764036</v>
+        <v>0.5152022265154644</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.02828687284163034</v>
+        <v>-0.6186155692193114</v>
       </c>
       <c r="B126" t="n">
-        <v>0.05207705660200723</v>
+        <v>-0.231818918128567</v>
       </c>
       <c r="C126" t="n">
-        <v>2.35896635721973</v>
+        <v>0.01815007618082522</v>
       </c>
       <c r="D126" t="n">
-        <v>1.732151674581777</v>
+        <v>-0.2320566825151512</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.4166294278101585</v>
+        <v>0.3362625538063666</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2632274883427062</v>
+        <v>-0.2940903008618887</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9324962638318093</v>
+        <v>-0.2400942460493278</v>
       </c>
       <c r="D127" t="n">
-        <v>1.368424863607804</v>
+        <v>-0.5863366285758659</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.5277851612321376</v>
+        <v>0.1348474026054793</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5309175448792425</v>
+        <v>0.7027813582204172</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.09478624147939047</v>
+        <v>-0.03483932153658501</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7205504452840006</v>
+        <v>-0.2968429913809926</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.967503375897141</v>
+        <v>0.3866568382154478</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6234691212970678</v>
+        <v>0.3269290626288059</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4666494112826008</v>
+        <v>0.4262289030120991</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7555461117831803</v>
+        <v>0.7516668140657767</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.6468272206350352</v>
+        <v>-0.1249177073322172</v>
       </c>
       <c r="B130" t="n">
-        <v>0.05935800109181022</v>
+        <v>-0.6197832829096621</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.3052725951578251</v>
+        <v>0.7633668173857356</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9314675070448498</v>
+        <v>1.074485325995809</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.3074288232137523</v>
+        <v>-0.9498335646773339</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.5722188439609817</v>
+        <v>0.8980829677687365</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2429991406909411</v>
+        <v>0.3249514734451963</v>
       </c>
       <c r="D131" t="n">
-        <v>0.622642112369362</v>
+        <v>-0.001073639593002398</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.6635054836385534</v>
+        <v>0.7794317205301899</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.3782188119540499</v>
+        <v>0.9270959206096772</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5547985332337052</v>
+        <v>-0.6335716048696577</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.2879583403091783</v>
+        <v>0.1976711304609753</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.2404531749169223</v>
+        <v>0.3871000843792132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5497578585749137</v>
+        <v>-0.4111885151152701</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07706810596353086</v>
+        <v>0.005345564047711741</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.8137147347903783</v>
+        <v>1.206728228622274</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1147729724265147</v>
+        <v>0.5697977306139694</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8014359088197511</v>
+        <v>-0.2061666990616515</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.3034566463329793</v>
+        <v>0.5364130988636476</v>
       </c>
       <c r="D134" t="n">
-        <v>0.13592178228397</v>
+        <v>0.3662567031756241</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.06823186958388749</v>
+        <v>0.4525652017711741</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.3194972378061485</v>
+        <v>0.3549353991438557</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.1422514087241359</v>
+        <v>1.325499713575517</v>
       </c>
       <c r="D135" t="n">
-        <v>1.178421285099061</v>
+        <v>0.03406428291266482</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.2789586528546155</v>
+        <v>0.5057380781162273</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4169804557600962</v>
+        <v>0.5584746586185623</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2569418612627408</v>
+        <v>2.29253455923644</v>
       </c>
       <c r="D136" t="n">
-        <v>0.02416255334202889</v>
+        <v>0.4100717221724291</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.1881322622480621</v>
+        <v>-0.340475709780901</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.664792833882156</v>
+        <v>-0.3106650352921803</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6147654638488713</v>
+        <v>2.606970332073418</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3841306310368703</v>
+        <v>1.790269743919016</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9136328168484773</v>
+        <v>-0.7426063573618342</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.8654570170938174</v>
+        <v>0.5416086042309303</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6424681929661404</v>
+        <v>0.5347983413456922</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.2758678288892401</v>
+        <v>1.046461229951534</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-0.252478034403816</v>
+        <v>0.3765019446253774</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8865249052460495</v>
+        <v>-0.4766311714766294</v>
       </c>
       <c r="C139" t="n">
-        <v>1.536634187832312</v>
+        <v>-0.6213624851302559</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.02550429456672</v>
+        <v>0.5166780794867027</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.09199773448373061</v>
+        <v>-0.24390669007553</v>
       </c>
       <c r="B140" t="n">
-        <v>0.557532204145077</v>
+        <v>0.8728630639373365</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8926735505858919</v>
+        <v>-0.386436066309975</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.4238535944114903</v>
+        <v>-0.4732305773645616</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.888388255103117</v>
+        <v>-0.9907855941016557</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2245286340531829</v>
+        <v>-0.06717672494183424</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8658563555118057</v>
+        <v>-0.4494300885069089</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9091830047342123</v>
+        <v>0.579202389910328</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.6433030184215263</v>
+        <v>-0.3803208754983469</v>
       </c>
       <c r="B142" t="n">
-        <v>0.87804744574008</v>
+        <v>0.2135277525295476</v>
       </c>
       <c r="C142" t="n">
-        <v>1.573394747004549</v>
+        <v>-1.205798042897</v>
       </c>
       <c r="D142" t="n">
-        <v>1.201838672463301</v>
+        <v>-0.0502534524236217</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-0.7232741811936889</v>
+        <v>0.729822206774591</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.9604156800600592</v>
+        <v>-0.5908544680769143</v>
       </c>
       <c r="C143" t="n">
-        <v>1.806562962224487</v>
+        <v>-2.012658576699877</v>
       </c>
       <c r="D143" t="n">
-        <v>2.059095880335566</v>
+        <v>-0.001836309140338267</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.233465490852202</v>
+        <v>0.6947988620299055</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.0372168224771845</v>
+        <v>0.507217357053491</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.1766000822064519</v>
+        <v>-1.552603166955048</v>
       </c>
       <c r="D144" t="n">
-        <v>0.04841993035080265</v>
+        <v>-0.2302108078241058</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.4904992204643674</v>
+        <v>0.1265540046765976</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.265665708866325</v>
+        <v>-0.9030310036188998</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.9091903525701457</v>
+        <v>-0.3312326623337469</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.7153762844682992</v>
+        <v>0.8523299964780293</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.02355671898814093</v>
+        <v>-0.3749993404227232</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.7431251599745254</v>
+        <v>-0.3846891099934586</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.2555405549484295</v>
+        <v>0.0209242240835011</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3034695543647802</v>
+        <v>-0.6837930106143127</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.01380445314114609</v>
+        <v>0.3963031990690262</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8268373792764336</v>
+        <v>-0.5064157780071774</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.1243273088667954</v>
+        <v>-0.4819935309977713</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.8744624523244755</v>
+        <v>-1.010889406773362</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-0.4368827941724498</v>
+        <v>-0.2727050688841057</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.9245547877824283</v>
+        <v>-0.1668629182462524</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.179276245084691</v>
+        <v>-0.03540718968196187</v>
       </c>
       <c r="D148" t="n">
-        <v>0.655379240821502</v>
+        <v>-0.3645879643242328</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.4811700502464518</v>
+        <v>-0.5949039422193905</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.3260746022991787</v>
+        <v>0.4859221716506554</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.6101018915551334</v>
+        <v>-0.2699808065040795</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.7373231378950242</v>
+        <v>-0.4178897637604755</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.4482138483970737</v>
+        <v>0.2242897878158534</v>
       </c>
       <c r="B150" t="n">
-        <v>0.3098787445016926</v>
+        <v>-0.2111980180520741</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.3857594805457172</v>
+        <v>-0.9451826329881485</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.3859329193681479</v>
+        <v>0.1685828559499605</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.6914409455276351</v>
+        <v>-0.4576066259430902</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9431073053879693</v>
+        <v>-0.006398254016408256</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.4976506957374269</v>
+        <v>-0.8272847704138709</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3317104380519063</v>
+        <v>0.1133687302877354</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.2582528473552788</v>
+        <v>0.3850403735856318</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4435799238580573</v>
+        <v>-0.7498396543904748</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2641564106810804</v>
+        <v>-1.347730460595295</v>
       </c>
       <c r="D152" t="n">
-        <v>1.217390569941442</v>
+        <v>-0.3343568624055231</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.993556206379109</v>
+        <v>0.776264934822221</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3428795313797643</v>
+        <v>-0.3896831133817098</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7877557768737269</v>
+        <v>-1.064163939768354</v>
       </c>
       <c r="D153" t="n">
-        <v>1.195699602925983</v>
+        <v>-0.3583908561046965</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-0.8756176151446633</v>
+        <v>-0.6489469876877521</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.9819560485943932</v>
+        <v>0.7319514944804291</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.4499224983079484</v>
+        <v>-0.375903252512145</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7610938733781172</v>
+        <v>-0.2544293365199433</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.937973460900221</v>
+        <v>0.1397485268203127</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3508071124108272</v>
+        <v>0.2670816855306848</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.863192737884973</v>
+        <v>-0.4730627202975621</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.428421818068331</v>
+        <v>0.4297038536869781</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.7588647611919728</v>
+        <v>0.9980732125923699</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.2463910662274222</v>
+        <v>-0.5969101695264099</v>
       </c>
       <c r="C156" t="n">
-        <v>0.08818136759510199</v>
+        <v>-0.5341832856715067</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9777069905924666</v>
+        <v>0.4191476986030369</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.2864722552301464</v>
+        <v>0.9871031343612013</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.8576515870551507</v>
+        <v>0.4403072526719267</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9171893486382156</v>
+        <v>0.6061420345336929</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3825797899609322</v>
+        <v>-0.3889403201728265</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.2065617913680544</v>
+        <v>0.9736085439398297</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3894940784953431</v>
+        <v>-0.7473510485795705</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4972858353993648</v>
+        <v>1.990393474988563</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.7374687128844837</v>
+        <v>0.3744630542254606</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.9249830101204661</v>
+        <v>0.5468919774976426</v>
       </c>
       <c r="B159" t="n">
-        <v>0.2029591543839564</v>
+        <v>0.9824089492282848</v>
       </c>
       <c r="C159" t="n">
-        <v>0.02740650211864815</v>
+        <v>2.984357311755172</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.3092786540797094</v>
+        <v>0.5887714689131165</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.1059841144755533</v>
+        <v>0.5267080041993217</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.4660609776486004</v>
+        <v>-0.3208004366229698</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9886061794732239</v>
+        <v>3.392003479039513</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4665681241383826</v>
+        <v>2.271386453710396</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.4588388269307211</v>
+        <v>0.93116158844772</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.9873823254029712</v>
+        <v>0.94577398967522</v>
       </c>
       <c r="C161" t="n">
-        <v>1.047326210207818</v>
+        <v>1.34308810434331</v>
       </c>
       <c r="D161" t="n">
-        <v>0.02017558316449724</v>
+        <v>1.592025625442074</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.5854515050875553</v>
+        <v>-0.7669375783065597</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4010811125212825</v>
+        <v>0.1192030340759989</v>
       </c>
       <c r="C162" t="n">
-        <v>1.109320231135741</v>
+        <v>1.656179093730018</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.9829959686180154</v>
+        <v>1.850173551462608</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.1660619781070305</v>
+        <v>-0.9960839509564756</v>
       </c>
       <c r="B163" t="n">
-        <v>0.4540783799850692</v>
+        <v>0.4592001827424734</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1762062105639742</v>
+        <v>0.1638573683668891</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.7268162232714942</v>
+        <v>1.096073755577692</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.4772985994349781</v>
+        <v>0.5248157942003431</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6852286164413437</v>
+        <v>0.5553008860442961</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.2833390906979403</v>
+        <v>-1.181300792390372</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3641364595805928</v>
+        <v>0.3771771057966794</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.2370065292828216</v>
+        <v>0.4924817103458785</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1330126509772154</v>
+        <v>-0.4920154301254089</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2974425683024913</v>
+        <v>-0.4874575927775206</v>
       </c>
       <c r="D165" t="n">
-        <v>0.8887950619601512</v>
+        <v>0.5334250812499732</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.5392496390043933</v>
+        <v>-0.3589961610798109</v>
       </c>
       <c r="B166" t="n">
-        <v>0.05615745811736694</v>
+        <v>-0.7020915017294271</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1786791218308524</v>
+        <v>0.4336926251534684</v>
       </c>
       <c r="D166" t="n">
-        <v>0.7117600304831111</v>
+        <v>-0.2857550863862616</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.8394448105789496</v>
+        <v>0.779009935635999</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9557569173511482</v>
+        <v>-0.142861326006432</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.441080939955601</v>
+        <v>0.174907080970802</v>
       </c>
       <c r="D167" t="n">
-        <v>0.02682196449987908</v>
+        <v>-1.071512680028411</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.2000809376665398</v>
+        <v>0.455788155681734</v>
       </c>
       <c r="B168" t="n">
-        <v>0.07077223064136784</v>
+        <v>0.4664523595786458</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.377353125673226</v>
+        <v>0.4828708291282801</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9053072552206586</v>
+        <v>-0.5093957576431619</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3117840056592442</v>
+        <v>0.8620034405536829</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5063861680449111</v>
+        <v>0.5784350273733172</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.243713595960523</v>
+        <v>1.239928867554593</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3627302208829348</v>
+        <v>0.4880078592125778</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.9842986001882734</v>
+        <v>-0.8191534679386179</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8434609268174964</v>
+        <v>-0.5980953298785447</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.8014322315499074</v>
+        <v>2.208157019812679</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9541164215787451</v>
+        <v>1.60203102494586</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.5444369700051082</v>
+        <v>0.7369870015652338</v>
       </c>
       <c r="B171" t="n">
-        <v>0.919398550402893</v>
+        <v>-0.4860779418110912</v>
       </c>
       <c r="C171" t="n">
-        <v>1.006809025419498</v>
+        <v>-0.04255140227189391</v>
       </c>
       <c r="D171" t="n">
-        <v>1.113605967682338</v>
+        <v>0.4809748518552667</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.2010817841631216</v>
+        <v>-0.1634970211509539</v>
       </c>
       <c r="B172" t="n">
-        <v>0.7524674933434081</v>
+        <v>0.6663632911607034</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6490315869344281</v>
+        <v>0.2335928957951229</v>
       </c>
       <c r="D172" t="n">
-        <v>1.743630962503699</v>
+        <v>-0.7726470982242889</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.6498799408144804</v>
+        <v>0.846422132060989</v>
       </c>
       <c r="B173" t="n">
-        <v>0.6992504580523871</v>
+        <v>-0.7865073039977759</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.2275700634653139</v>
+        <v>0.1982809112417211</v>
       </c>
       <c r="D173" t="n">
-        <v>1.412074754749606</v>
+        <v>0.4361103055366241</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.1181317224564697</v>
+        <v>-0.8021521741651416</v>
       </c>
       <c r="B174" t="n">
-        <v>0.3216903053994771</v>
+        <v>-0.04564901137865962</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6801839367755493</v>
+        <v>0.9026808034941773</v>
       </c>
       <c r="D174" t="n">
-        <v>1.153508511632859</v>
+        <v>-0.2710793997539137</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.5576427746612473</v>
+        <v>0.8510502219015306</v>
       </c>
       <c r="B175" t="n">
-        <v>0.7061471409369198</v>
+        <v>0.3269792746901325</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7689771246913394</v>
+        <v>0.3034206470867617</v>
       </c>
       <c r="D175" t="n">
-        <v>1.101695934603228</v>
+        <v>-0.9705617611608047</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.8179574902065536</v>
+        <v>0.4647079944646351</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.6984642407761961</v>
+        <v>0.002012073802220238</v>
       </c>
       <c r="C176" t="n">
-        <v>1.084821588889966</v>
+        <v>0.5725196270826757</v>
       </c>
       <c r="D176" t="n">
-        <v>1.453593103736736</v>
+        <v>0.2632670165858344</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.8322448816962635</v>
+        <v>-0.1011143834421206</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0706170590645292</v>
+        <v>0.3504448857728319</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.1815155479553001</v>
+        <v>1.39188550422793</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0649103117699607</v>
+        <v>0.4734067187102531</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.01241643953464133</v>
+        <v>0.3707914316626666</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2249394102637023</v>
+        <v>0.6356430332283811</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.459888689808052</v>
+        <v>1.284594782702016</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6469195676433576</v>
+        <v>0.9430433331056901</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.2166678321044828</v>
+        <v>0.1143307621877694</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8352905455471373</v>
+        <v>0.5661214778282442</v>
       </c>
       <c r="C179" t="n">
-        <v>-1.174342047028816</v>
+        <v>1.157079566465713</v>
       </c>
       <c r="D179" t="n">
-        <v>0.8020969456973746</v>
+        <v>1.51663628801785</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.9861474164729924</v>
+        <v>-0.9714896671705657</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6048145159405736</v>
+        <v>0.3826485806053523</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.6973693193080742</v>
+        <v>0.7547018408249602</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2646892996245843</v>
+        <v>1.506925869783096</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.6576017880891931</v>
+        <v>0.7985913196713648</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.05552445759025959</v>
+        <v>0.9561618079666594</v>
       </c>
       <c r="C181" t="n">
-        <v>0.3153785798534181</v>
+        <v>-0.378418769602249</v>
       </c>
       <c r="D181" t="n">
-        <v>1.142076661372621</v>
+        <v>0.7039814671511105</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.910088549792456</v>
+        <v>-0.3127756664594146</v>
       </c>
       <c r="B182" t="n">
-        <v>0.9713041027746332</v>
+        <v>0.579503214720468</v>
       </c>
       <c r="C182" t="n">
-        <v>1.236875673298819</v>
+        <v>0.2935371809576119</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8480575007286038</v>
+        <v>1.229219625801062</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.03399231833011784</v>
+        <v>0.5754066147960839</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.3530866701404916</v>
+        <v>0.5323642835110123</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1683655349298734</v>
+        <v>0.2619280488297158</v>
       </c>
       <c r="D183" t="n">
-        <v>1.411748316753516</v>
+        <v>1.227658691834763</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.5950890180180326</v>
+        <v>0.04442480808800497</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.1729544570898869</v>
+        <v>-0.6932509120853683</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.2435173275106225</v>
+        <v>0.8464581800533837</v>
       </c>
       <c r="D184" t="n">
-        <v>0.092077849958941</v>
+        <v>1.064676207254933</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.3575099875418384</v>
+        <v>-0.8783492875209666</v>
       </c>
       <c r="B185" t="n">
-        <v>0.7256642421719908</v>
+        <v>0.5342537330447346</v>
       </c>
       <c r="C185" t="n">
-        <v>0.3239053678719789</v>
+        <v>0.3517276132573481</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.3928730257294275</v>
+        <v>0.01066616569232265</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.6947788401811603</v>
+        <v>-0.4090182664541904</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.1720372254980553</v>
+        <v>-0.6600238195638681</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2191550631077514</v>
+        <v>-0.4165179812115911</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4369573951972062</v>
+        <v>-0.02084785842255446</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.07516340933790699</v>
+        <v>0.4247343042351612</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.5178516671051712</v>
+        <v>0.2268369244130888</v>
       </c>
       <c r="C187" t="n">
-        <v>0.885943891845227</v>
+        <v>-1.198394818086311</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5451454203069518</v>
+        <v>-0.5864738214579466</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.05905866347770905</v>
+        <v>-0.9046065780269064</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4497290485924685</v>
+        <v>0.6829576673088336</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7786976530188068</v>
+        <v>-0.4920930249347357</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.09689565396403124</v>
+        <v>0.7000955042278031</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.2282450062864272</v>
+        <v>-0.4562591094278496</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.6925072011886773</v>
+        <v>-0.7606271236776299</v>
       </c>
       <c r="C189" t="n">
-        <v>0.8788332902181115</v>
+        <v>-0.989186577734937</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02362305389254954</v>
+        <v>0.3045670481105424</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-0.7834176441037448</v>
+        <v>-0.9602435138369385</v>
       </c>
       <c r="B190" t="n">
-        <v>0.2311842645133604</v>
+        <v>-0.7641506346761482</v>
       </c>
       <c r="C190" t="n">
-        <v>1.054369879164392</v>
+        <v>-1.791786822538093</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.34068766310377</v>
+        <v>-0.9021137615378502</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9179870763343678</v>
+        <v>0.1827448076344311</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.01832964348594546</v>
+        <v>-0.8805440698345528</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3356736575231523</v>
+        <v>-2.454956940254195</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.8074121817427442</v>
+        <v>-0.7354057548111597</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.8786540654843022</v>
+        <v>-0.03004676171134957</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.6606684106671652</v>
+        <v>-0.3901481592617007</v>
       </c>
       <c r="C192" t="n">
-        <v>0.8579759116584204</v>
+        <v>-2.220865710853129</v>
       </c>
       <c r="D192" t="n">
-        <v>0.05756723788847586</v>
+        <v>-0.2581238356261473</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.1877452931307482</v>
+        <v>0.7417100683374864</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.06842850311011284</v>
+        <v>0.3970595016058052</v>
       </c>
       <c r="C193" t="n">
-        <v>2.135471564284612</v>
+        <v>-2.355278050348877</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.4794082883176879</v>
+        <v>-0.3768849206287691</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9350528486849223</v>
+        <v>0.9562686358582655</v>
       </c>
       <c r="B194" t="n">
-        <v>0.786353258145299</v>
+        <v>-0.02396611832139439</v>
       </c>
       <c r="C194" t="n">
-        <v>2.143851067261894</v>
+        <v>-1.473937361369875</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.279358769111234</v>
+        <v>1.216913359619658</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.0415571294100785</v>
+        <v>-0.6520091673013</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.1545976733168828</v>
+        <v>-0.2249878290115497</v>
       </c>
       <c r="C195" t="n">
-        <v>1.908147040997283</v>
+        <v>0.8038345030009098</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.09622520434540759</v>
+        <v>-0.1767686593815226</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.7154694129236034</v>
+        <v>-0.9781779728021234</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.7450420877023141</v>
+        <v>0.8616226655243067</v>
       </c>
       <c r="C196" t="n">
-        <v>2.103630869774637</v>
+        <v>0.3910081435218882</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3487568324004021</v>
+        <v>-0.6920261575786384</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.8728388613476514</v>
+        <v>0.4558576178375624</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.5549796009698813</v>
+        <v>0.08563010147042038</v>
       </c>
       <c r="C197" t="n">
-        <v>2.436048341775122</v>
+        <v>-0.6151629545176769</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.04948085559737254</v>
+        <v>0.05334706607738329</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.4795888053123798</v>
+        <v>-0.343739397423424</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.09088355411754523</v>
+        <v>-0.6529158579828898</v>
       </c>
       <c r="C198" t="n">
-        <v>1.73296322820807</v>
+        <v>-0.2852312838062785</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.258098814956254</v>
+        <v>0.4436857639932703</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-0.4621224247349862</v>
+        <v>0.6960644153067452</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1657164994249347</v>
+        <v>-0.2601029464073201</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.1423386564094208</v>
+        <v>-0.3673677572560088</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.500288243144427</v>
+        <v>-0.8117559783843439</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.08280667659093677</v>
+        <v>-0.2531642302341564</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.07414511904496446</v>
+        <v>-0.1401505799889831</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.5454151458484432</v>
+        <v>0.1525015592251687</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.01794989605514217</v>
+        <v>-0.3870165661842795</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9660638133568011</v>
+        <v>-0.1892213508995051</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.7417993684897257</v>
+        <v>0.5004354582658304</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.5508038189121306</v>
+        <v>0.1017712286511077</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.04209398533921087</v>
+        <v>-0.4185740224718435</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.8677848159662622</v>
+        <v>-0.7690202716014309</v>
       </c>
       <c r="B202" t="n">
-        <v>0.6712614826667591</v>
+        <v>0.9720475396911898</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2587335149608215</v>
+        <v>-0.2841586389640013</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.3542603629927253</v>
+        <v>0.2093240103339274</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-0.2896082575385086</v>
+        <v>-0.4403027122966949</v>
       </c>
       <c r="B203" t="n">
-        <v>0.00273141564770274</v>
+        <v>0.1047941842527209</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.04760830394203491</v>
+        <v>-0.9106309655651529</v>
       </c>
       <c r="D203" t="n">
-        <v>0.00204396252933442</v>
+        <v>0.7806956831642634</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.2247636131727373</v>
+        <v>-0.08269379536418686</v>
       </c>
       <c r="B204" t="n">
-        <v>0.2120004201959769</v>
+        <v>-0.2445877481698464</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.4558718718349599</v>
+        <v>-1.177578108205781</v>
       </c>
       <c r="D204" t="n">
-        <v>0.06434236121263581</v>
+        <v>-0.3394219947057038</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.2712800683660486</v>
+        <v>0.6850048459970015</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.4555147424367807</v>
+        <v>0.03706179871962711</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.4189271812113552</v>
+        <v>-1.332115561753028</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4124452641567131</v>
+        <v>-0.0365168232417083</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.536297370529621</v>
+        <v>0.8429952376126781</v>
       </c>
       <c r="B206" t="n">
-        <v>0.02260733292847217</v>
+        <v>-0.4716662158248011</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.08700474112023562</v>
+        <v>-0.6058937519225692</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.2707631212186902</v>
+        <v>0.2411437023114065</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-0.6145660279804173</v>
+        <v>-0.6256673681940816</v>
       </c>
       <c r="B207" t="n">
-        <v>0.2576178613682782</v>
+        <v>0.6632743616441932</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4200499492772967</v>
+        <v>0.4691253218446709</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1856408687668527</v>
+        <v>-0.3780160919815556</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.751085242557586</v>
+        <v>0.26653170972026</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.1061131841693606</v>
+        <v>-0.8126737956217593</v>
       </c>
       <c r="C208" t="n">
-        <v>0.2437341427515897</v>
+        <v>0.1047077733227593</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1823880981548118</v>
+        <v>0.3518194220345604</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.9729568400055155</v>
+        <v>0.5997595906813151</v>
       </c>
       <c r="B209" t="n">
-        <v>0.924884207213597</v>
+        <v>-0.9885013394123425</v>
       </c>
       <c r="C209" t="n">
-        <v>0.8498577158711731</v>
+        <v>0.1748928035199805</v>
       </c>
       <c r="D209" t="n">
-        <v>0.09041960191766282</v>
+        <v>-0.6003729553687963</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-0.7794267193374174</v>
+        <v>-0.1560650809991544</v>
       </c>
       <c r="B210" t="n">
-        <v>0.6368512150999548</v>
+        <v>-0.6767585769424822</v>
       </c>
       <c r="C210" t="n">
-        <v>2.375927867687226</v>
+        <v>0.3455181431462369</v>
       </c>
       <c r="D210" t="n">
-        <v>1.409035238077142</v>
+        <v>-1.218537614744482</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.8917587571768408</v>
+        <v>0.7925007654904708</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3343655551698874</v>
+        <v>-0.4745328245998361</v>
       </c>
       <c r="C211" t="n">
-        <v>0.6151977148878084</v>
+        <v>-0.1709264656008382</v>
       </c>
       <c r="D211" t="n">
-        <v>1.967675365413895</v>
+        <v>-1.205507874364561</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.6978319563334865</v>
+        <v>-0.3502476884037884</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.3304378777302817</v>
+        <v>-0.1172870969290438</v>
       </c>
       <c r="C212" t="n">
-        <v>0.7361547357971866</v>
+        <v>0.3508555622435038</v>
       </c>
       <c r="D212" t="n">
-        <v>1.096080202930387</v>
+        <v>-0.5216077470589515</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.03490523080130914</v>
+        <v>-0.00682786022022186</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.6902323813540567</v>
+        <v>-0.9269860566182078</v>
       </c>
       <c r="C213" t="n">
-        <v>0.06158203086457396</v>
+        <v>0.1779209485690609</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1458672322157162</v>
+        <v>-0.4470531439452797</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.7370827537477809</v>
+        <v>0.9004341348361697</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.6173959136682012</v>
+        <v>0.8848218802961401</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.4054959930882896</v>
+        <v>-0.2385892975725077</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.9061611198908932</v>
+        <v>-1.083241877113729</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.2345307205243496</v>
+        <v>-0.9973119284218408</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.4672303750723066</v>
+        <v>-0.5666826754404641</v>
       </c>
       <c r="C215" t="n">
-        <v>0.3275406038944992</v>
+        <v>0.9027852083228918</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.6975524745718731</v>
+        <v>0.80953622923233</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.1779626954580764</v>
+        <v>0.4393293703678691</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.1118456662408853</v>
+        <v>-0.3189152104313435</v>
       </c>
       <c r="C216" t="n">
-        <v>0.5394932115359291</v>
+        <v>-0.1501527303762371</v>
       </c>
       <c r="D216" t="n">
-        <v>-1.004671327363123</v>
+        <v>0.068101505339595</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.7272830296774613</v>
+        <v>0.3415326666123011</v>
       </c>
       <c r="B217" t="n">
-        <v>0.006161624107267505</v>
+        <v>-0.006360318395949749</v>
       </c>
       <c r="C217" t="n">
-        <v>0.1055185225299739</v>
+        <v>-0.1752431905745086</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.6482909806091515</v>
+        <v>-0.6056678357954601</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.6664744334717689</v>
+        <v>0.07527606095077144</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3066172465693415</v>
+        <v>-0.4578339748493436</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.6315898685872533</v>
+        <v>0.2810827913155933</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.3758890041374478</v>
+        <v>0.02916766718679598</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.124412386401358</v>
+        <v>-0.4336584536963883</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.3761877273379031</v>
+        <v>0.1621442921986938</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.53277954183842</v>
+        <v>0.3893508809325008</v>
       </c>
       <c r="D219" t="n">
-        <v>0.2468689732764219</v>
+        <v>-0.313468361165087</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.5142536780140132</v>
+        <v>0.6326496983623651</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.5506647096412773</v>
+        <v>0.4254579573234221</v>
       </c>
       <c r="C220" t="n">
-        <v>-2.082034492575734</v>
+        <v>-0.1138741052524436</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.7016298083764905</v>
+        <v>-0.396042174480016</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.01075843862762316</v>
+        <v>0.705943752439131</v>
       </c>
       <c r="B221" t="n">
-        <v>0.723722602142117</v>
+        <v>0.8021435881429877</v>
       </c>
       <c r="C221" t="n">
-        <v>-2.141161777157248</v>
+        <v>0.3167054281122558</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07470811734786856</v>
+        <v>0.731762134628508</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.3274515295442149</v>
+        <v>0.01221797229219357</v>
       </c>
       <c r="B222" t="n">
-        <v>0.205896510162805</v>
+        <v>0.8179880740860168</v>
       </c>
       <c r="C222" t="n">
-        <v>-2.346499483272009</v>
+        <v>1.48321192140214</v>
       </c>
       <c r="D222" t="n">
-        <v>0.1292624537002822</v>
+        <v>1.382127964541119</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.2632149294848771</v>
+        <v>0.1003854974307312</v>
       </c>
       <c r="B223" t="n">
-        <v>0.209854207477804</v>
+        <v>-0.2874597109900074</v>
       </c>
       <c r="C223" t="n">
-        <v>-2.674588668915313</v>
+        <v>1.233781909133405</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1963236304888668</v>
+        <v>1.987465502779774</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-0.536945925338812</v>
+        <v>-0.5416846859367539</v>
       </c>
       <c r="B224" t="n">
-        <v>0.7587303307660855</v>
+        <v>-0.1871478271480296</v>
       </c>
       <c r="C224" t="n">
-        <v>-2.409534127470123</v>
+        <v>0.2208581266441237</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.1377145285459112</v>
+        <v>0.418866516112715</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-0.5593739241704261</v>
+        <v>0.6217900771842366</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1729465070964933</v>
+        <v>0.4526848397776404</v>
       </c>
       <c r="C225" t="n">
-        <v>-2.519818173953198</v>
+        <v>-0.488303485593551</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9993839669814827</v>
+        <v>-0.409714571714116</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.9978925425597414</v>
+        <v>-0.08101312949134809</v>
       </c>
       <c r="B226" t="n">
-        <v>0.5790667464964145</v>
+        <v>-0.8370473738765314</v>
       </c>
       <c r="C226" t="n">
-        <v>-1.82724228016314</v>
+        <v>0.2698068619891691</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.7709569468695626</v>
+        <v>0.67895128485097</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.8960016223580796</v>
+        <v>-0.1692651201694491</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.4526472380741542</v>
+        <v>-0.370090028960514</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.298254842818964</v>
+        <v>0.230476159973206</v>
       </c>
       <c r="D227" t="n">
-        <v>1.740747576080221</v>
+        <v>-0.3500814519897779</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-0.3517039281154515</v>
+        <v>0.2905087552161945</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3974418940087081</v>
+        <v>0.4440414246694766</v>
       </c>
       <c r="C228" t="n">
-        <v>1.16875552780308</v>
+        <v>-0.1393085903207418</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1544930863746019</v>
+        <v>-0.8695614396020418</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-0.8596314084900274</v>
+        <v>0.3005168873499797</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.5936628146983303</v>
+        <v>0.2200094442598057</v>
       </c>
       <c r="C229" t="n">
-        <v>1.13181682512081</v>
+        <v>0.1613351663134263</v>
       </c>
       <c r="D229" t="n">
-        <v>0.442878217087476</v>
+        <v>0.5055057464992749</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-0.8254251642386643</v>
+        <v>0.6289462029697213</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1052937226748683</v>
+        <v>0.01108213461693253</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.04220310693455016</v>
+        <v>0.5415923245434862</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.2525597920738715</v>
+        <v>0.6289949622130222</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.4218749858769413</v>
+        <v>-0.3708920901635238</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.497538788511342</v>
+        <v>0.2506744704655239</v>
       </c>
       <c r="C231" t="n">
-        <v>-1.230730202455576</v>
+        <v>1.074859416735797</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.4901090142755684</v>
+        <v>0.3959001027093892</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-0.5181223622322533</v>
+        <v>-0.3681324754059356</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1325224101611118</v>
+        <v>-0.4369577781437832</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.9049183510803134</v>
+        <v>0.817414538054429</v>
       </c>
       <c r="D232" t="n">
-        <v>0.03768398822494206</v>
+        <v>0.6254551186631265</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-0.4675556832008192</v>
+        <v>0.1784023001221087</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.1628094487294722</v>
+        <v>-0.0146893920063873</v>
       </c>
       <c r="C233" t="n">
-        <v>-1.114472713273216</v>
+        <v>-0.03881105227202073</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.3603941456828074</v>
+        <v>-0.06311398133997709</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-0.3771444329691125</v>
+        <v>-0.5450565825690372</v>
       </c>
       <c r="B234" t="n">
-        <v>0.6684382566060094</v>
+        <v>-0.8813402644971136</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.582889149785819</v>
+        <v>-0.1421152983962183</v>
       </c>
       <c r="D234" t="n">
-        <v>0.07016378276981175</v>
+        <v>-0.2728664436268705</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.5087509415264195</v>
+        <v>0.9658511796753508</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.1502209362687643</v>
+        <v>0.3075759141970102</v>
       </c>
       <c r="C235" t="n">
-        <v>-2.059672429223872</v>
+        <v>-0.686061670905213</v>
       </c>
       <c r="D235" t="n">
-        <v>0.1743036025866582</v>
+        <v>-0.9863689071283629</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.4091677079760152</v>
+        <v>0.2760941411096285</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.001760752729068837</v>
+        <v>-0.3081022686417514</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.571884331339518</v>
+        <v>0.404981495347208</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.06649471289572068</v>
+        <v>0.3963679822092349</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.2935177550480561</v>
+        <v>-0.4152001248009356</v>
       </c>
       <c r="B237" t="n">
-        <v>0.9356259149568928</v>
+        <v>-0.4690540674478016</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.8829466055831596</v>
+        <v>0.9420595813753815</v>
       </c>
       <c r="D237" t="n">
-        <v>0.2468184549588797</v>
+        <v>0.2161559372959326</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-0.182156549536922</v>
+        <v>-0.4257193961986852</v>
       </c>
       <c r="B238" t="n">
-        <v>0.9571463300085075</v>
+        <v>0.309430323079585</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.2343775048070013</v>
+        <v>0.3566560710407152</v>
       </c>
       <c r="D238" t="n">
-        <v>0.7999114848489347</v>
+        <v>-0.4114486359273099</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.7886211309377824</v>
+        <v>-0.8599312287551961</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5791997060560228</v>
+        <v>0.3656819308135337</v>
       </c>
       <c r="C239" t="n">
-        <v>0.08483000523462041</v>
+        <v>-0.007120944574862675</v>
       </c>
       <c r="D239" t="n">
-        <v>1.235636077545148</v>
+        <v>-0.1596510782278627</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-0.5113052604560406</v>
+        <v>0.7666409142405712</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3115768889755672</v>
+        <v>-0.4187990876958443</v>
       </c>
       <c r="C240" t="n">
-        <v>0.9268831932107848</v>
+        <v>-0.913216446397622</v>
       </c>
       <c r="D240" t="n">
-        <v>1.252310107457718</v>
+        <v>0.4891132305585252</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-0.3784465847754972</v>
+        <v>-0.3599531245943599</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.9669491307843281</v>
+        <v>0.05081763871769041</v>
       </c>
       <c r="C241" t="n">
-        <v>0.2941399598237739</v>
+        <v>-0.1584058804650552</v>
       </c>
       <c r="D241" t="n">
-        <v>0.941496996961367</v>
+        <v>-0.6342367164315266</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-0.314729971887812</v>
+        <v>-0.3797780671886493</v>
       </c>
       <c r="B242" t="n">
-        <v>0.8543075826445856</v>
+        <v>-0.104953144251188</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.5433400387833575</v>
+        <v>-0.1688667533566989</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.926190012831142</v>
+        <v>-0.3082203070633076</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.08033801033914245</v>
+        <v>0.4414276744787278</v>
       </c>
       <c r="B243" t="n">
-        <v>0.7588591930634894</v>
+        <v>-0.1903199593765326</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.6614066210849121</v>
+        <v>-0.5181780260413681</v>
       </c>
       <c r="D243" t="n">
-        <v>0.583970462777015</v>
+        <v>-0.1770633999478531</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.1212746500643014</v>
+        <v>-0.7127584951681889</v>
       </c>
       <c r="B244" t="n">
-        <v>0.1944184530328243</v>
+        <v>-0.9740023647030231</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.3610272798857113</v>
+        <v>-0.2253605287078212</v>
       </c>
       <c r="D244" t="n">
-        <v>0.8580414570994285</v>
+        <v>0.09369237556200814</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.9897846513232278</v>
+        <v>-0.5132920344973204</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3296716696297568</v>
+        <v>-0.2422747151666034</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.07143920805091571</v>
+        <v>-0.918287501710908</v>
       </c>
       <c r="D245" t="n">
-        <v>0.3674090110892019</v>
+        <v>-1.111444300661865</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-0.993171220742886</v>
+        <v>0.4493543501379367</v>
       </c>
       <c r="B246" t="n">
-        <v>0.2193577597865257</v>
+        <v>0.8957458700949126</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.9766623599546431</v>
+        <v>-1.297942277469281</v>
       </c>
       <c r="D246" t="n">
-        <v>0.07604266129220097</v>
+        <v>-0.5478615237007268</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.3540320375653145</v>
+        <v>-0.4727547601143074</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.6740362362823815</v>
+        <v>0.2813660975788721</v>
       </c>
       <c r="C247" t="n">
-        <v>-2.156599423567763</v>
+        <v>-0.5801558971508194</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.005407357335186408</v>
+        <v>1.43168367525147</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-0.04360377426299533</v>
+        <v>0.6317009612284374</v>
       </c>
       <c r="B248" t="n">
-        <v>0.03964052946254792</v>
+        <v>-0.4060872671864899</v>
       </c>
       <c r="C248" t="n">
-        <v>-2.240410555365979</v>
+        <v>-0.3028300103034174</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.3755120894483664</v>
+        <v>0.2720640254733726</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-0.9081261730763048</v>
+        <v>0.1040546589576692</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.9397821693726836</v>
+        <v>-0.5631089732595356</v>
       </c>
       <c r="C249" t="n">
-        <v>-1.912000836537737</v>
+        <v>0.06340395597747378</v>
       </c>
       <c r="D249" t="n">
-        <v>0.2330494393424698</v>
+        <v>-0.2250071964844173</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-0.2681435822812359</v>
+        <v>0.1083289515397237</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.9232462595228927</v>
+        <v>-0.1305643527713549</v>
       </c>
       <c r="C250" t="n">
-        <v>-2.942344049674242</v>
+        <v>0.04610254592296442</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.585448686430511</v>
+        <v>-0.7831530519779069</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-0.3466104726692167</v>
+        <v>0.6991861053370536</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.1343223294445757</v>
+        <v>0.9908701221130904</v>
       </c>
       <c r="C251" t="n">
-        <v>-1.768466015441846</v>
+        <v>0.1514070046703745</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.3665722448025149</v>
+        <v>-0.2796001544333777</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.7745237759443142</v>
+        <v>-0.8198076138456492</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.448754747193095</v>
+        <v>-0.4850775573935249</v>
       </c>
       <c r="C252" t="n">
-        <v>-2.263107791696522</v>
+        <v>1.131893701709966</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.2571982581924703</v>
+        <v>1.178447959727359</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.6916458043058706</v>
+        <v>0.360818484368497</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.4114714258238459</v>
+        <v>-0.8663064590622576</v>
       </c>
       <c r="C253" t="n">
-        <v>-1.633279916166553</v>
+        <v>-0.05506551970362565</v>
       </c>
       <c r="D253" t="n">
-        <v>0.368771968331375</v>
+        <v>0.3438490662959932</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.7918289076652592</v>
+        <v>0.4859380145933858</v>
       </c>
       <c r="B254" t="n">
-        <v>0.113933814236937</v>
+        <v>0.979003163008813</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.4856482905500802</v>
+        <v>-0.2198352993669037</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.9694649519713541</v>
+        <v>-1.036092942032066</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-0.9892071980122927</v>
+        <v>0.9131298761921538</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.7748559335731253</v>
+        <v>-0.9823377175012795</v>
       </c>
       <c r="C255" t="n">
-        <v>0.7009759318430324</v>
+        <v>0.7216287970752168</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4543668518037889</v>
+        <v>0.8445586297343427</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-0.7987529759834398</v>
+        <v>-0.3230250062611864</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.7338525351248164</v>
+        <v>0.1054890859972681</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.3678880807122942</v>
+        <v>1.59213894031019</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.6700075548534816</v>
+        <v>0.3496990875201665</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.1302028860319044</v>
+        <v>-0.4825614627938117</v>
       </c>
       <c r="B257" t="n">
-        <v>0.03988033118753931</v>
+        <v>-0.06855951286906681</v>
       </c>
       <c r="C257" t="n">
-        <v>-1.835804175943713</v>
+        <v>1.188801942755964</v>
       </c>
       <c r="D257" t="n">
-        <v>-1.296455086796969</v>
+        <v>0.05610751120660381</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.5126275262522721</v>
+        <v>0.8096613596573012</v>
       </c>
       <c r="B258" t="n">
-        <v>0.5703803743171316</v>
+        <v>-0.0958784859384425</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.7360475848968944</v>
+        <v>0.657012827982962</v>
       </c>
       <c r="D258" t="n">
-        <v>0.5431885806153804</v>
+        <v>-0.02693497351682821</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-0.09689202963792387</v>
+        <v>-0.9070113538139415</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8355042245383619</v>
+        <v>0.3815987173294746</v>
       </c>
       <c r="C259" t="n">
-        <v>0.02742193368095414</v>
+        <v>1.259090372451154</v>
       </c>
       <c r="D259" t="n">
-        <v>0.6047761458249357</v>
+        <v>0.06512884519711522</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-0.2238806820233663</v>
+        <v>0.05071165809583023</v>
       </c>
       <c r="B260" t="n">
-        <v>0.3911934211882422</v>
+        <v>-0.3704468212712564</v>
       </c>
       <c r="C260" t="n">
-        <v>0.3291869679476751</v>
+        <v>0.6686582110292687</v>
       </c>
       <c r="D260" t="n">
-        <v>1.174087134555769</v>
+        <v>0.3810348283826802</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.3206251417726977</v>
+        <v>0.204646234940034</v>
       </c>
       <c r="B261" t="n">
-        <v>0.6074695026420733</v>
+        <v>-0.2061476143450118</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.08413868490065622</v>
+        <v>0.132227779731566</v>
       </c>
       <c r="D261" t="n">
-        <v>0.8905980771493019</v>
+        <v>0.02331624511167905</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.1615838298772589</v>
+        <v>-0.4232180640624144</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.9303469956876527</v>
+        <v>-0.8947966783744981</v>
       </c>
       <c r="C262" t="n">
-        <v>0.3575011036101794</v>
+        <v>0.3342230704487972</v>
       </c>
       <c r="D262" t="n">
-        <v>0.8483135161449868</v>
+        <v>-0.3459175150400842</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.9020289898170408</v>
+        <v>0.225052283948032</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.5493029520504074</v>
+        <v>-0.8175650388907403</v>
       </c>
       <c r="C263" t="n">
-        <v>0.3807836417322303</v>
+        <v>-0.3093842331668383</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.4739951706959449</v>
+        <v>-1.349326850160859</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.9337303140242834</v>
+        <v>0.9253473155829495</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.3088871798555806</v>
+        <v>-0.5280060326684619</v>
       </c>
       <c r="C264" t="n">
-        <v>1.010112368310019</v>
+        <v>-0.3864987685052148</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.7811750828926821</v>
+        <v>-1.089250855087386</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-0.8034641616926366</v>
+        <v>0.02306983619605085</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.2819400838365727</v>
+        <v>0.9264717065265737</v>
       </c>
       <c r="C265" t="n">
-        <v>1.846195232965893</v>
+        <v>0.5998731108502758</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.7351241209264415</v>
+        <v>-0.4279173356202696</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-0.8247433918683689</v>
+        <v>-0.1430876985095526</v>
       </c>
       <c r="B266" t="n">
-        <v>0.284255744091918</v>
+        <v>0.3304267484017582</v>
       </c>
       <c r="C266" t="n">
-        <v>0.6944791072358162</v>
+        <v>0.8804108864456274</v>
       </c>
       <c r="D266" t="n">
-        <v>-1.59919073979519</v>
+        <v>0.6059205790807648</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.4234272070920457</v>
+        <v>-0.4366117944268706</v>
       </c>
       <c r="B267" t="n">
-        <v>0.8167845048586269</v>
+        <v>0.5898386167462175</v>
       </c>
       <c r="C267" t="n">
-        <v>-1.045750550743037</v>
+        <v>0.7447167116066908</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.4373328693568244</v>
+        <v>1.191353295193218</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.4670872758709406</v>
+        <v>0.3464907973113676</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.6575494623642821</v>
+        <v>0.5205964889586487</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.5822743984267053</v>
+        <v>-0.1197551450037151</v>
       </c>
       <c r="D268" t="n">
-        <v>1.363522849050119</v>
+        <v>0.9011807058388555</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.8319772739388915</v>
+        <v>0.8182295920997322</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.4414083944305356</v>
+        <v>-0.03729936731524641</v>
       </c>
       <c r="C269" t="n">
-        <v>0.3281255289715521</v>
+        <v>0.1540892869105113</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.3483379563065533</v>
+        <v>0.8952499682048163</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.3281276581404073</v>
+        <v>-0.4602757995932896</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1724332030070155</v>
+        <v>0.8206553998191826</v>
       </c>
       <c r="C270" t="n">
-        <v>1.272188444435743</v>
+        <v>1.063499707851234</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.6002464051817932</v>
+        <v>0.5537833473652319</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.2850730649402509</v>
+        <v>-0.7713096509137241</v>
       </c>
       <c r="B271" t="n">
-        <v>0.6858044674708916</v>
+        <v>-0.9688061059753954</v>
       </c>
       <c r="C271" t="n">
-        <v>1.637216917706137</v>
+        <v>0.8999833333036671</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.3584786221047487</v>
+        <v>1.123094817975636</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-0.2982994066914515</v>
+        <v>-0.1064944343057763</v>
       </c>
       <c r="B272" t="n">
-        <v>0.06480537390457819</v>
+        <v>-0.1948534119653771</v>
       </c>
       <c r="C272" t="n">
-        <v>2.063101560146256</v>
+        <v>-0.7428188439640638</v>
       </c>
       <c r="D272" t="n">
-        <v>0.2126184360012081</v>
+        <v>-0.4485508834448165</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>-0.2138853980807385</v>
+        <v>0.06434022172102627</v>
       </c>
       <c r="B273" t="n">
-        <v>0.51197495357032</v>
+        <v>0.5953134847802324</v>
       </c>
       <c r="C273" t="n">
-        <v>2.001039595497665</v>
+        <v>-1.10895288344043</v>
       </c>
       <c r="D273" t="n">
-        <v>0.6661107837663793</v>
+        <v>-0.3529832120883585</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.017269464323036</v>
+        <v>-0.8649002577736429</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8389714303631559</v>
+        <v>-0.5106192071335285</v>
       </c>
       <c r="C274" t="n">
-        <v>1.226663712872828</v>
+        <v>-0.5915371291970706</v>
       </c>
       <c r="D274" t="n">
-        <v>1.435289246365107</v>
+        <v>0.9412211059375846</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-0.1097006606471682</v>
+        <v>0.7946302831161933</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.4103140577329398</v>
+        <v>-0.004320538497417648</v>
       </c>
       <c r="C275" t="n">
-        <v>0.5081926216588712</v>
+        <v>-1.187006016280658</v>
       </c>
       <c r="D275" t="n">
-        <v>1.934332574416455</v>
+        <v>-0.8347484625833905</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.9966878243587198</v>
+        <v>-0.06258266276817737</v>
       </c>
       <c r="B276" t="n">
-        <v>0.06130543566947355</v>
+        <v>-0.5164388531001243</v>
       </c>
       <c r="C276" t="n">
-        <v>0.009666660638658228</v>
+        <v>-0.1658629826578846</v>
       </c>
       <c r="D276" t="n">
-        <v>0.2593699815136761</v>
+        <v>0.2865370192746798</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.3208632831464497</v>
+        <v>-0.6237230436134351</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8260427599929063</v>
+        <v>0.8400532071159512</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9861629832571002</v>
+        <v>0.1171344818909232</v>
       </c>
       <c r="D277" t="n">
-        <v>0.2029567032804935</v>
+        <v>-0.6085040039902045</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-0.06854305690152107</v>
+        <v>-0.9853743542247899</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.4036466075822929</v>
+        <v>0.07327015493891009</v>
       </c>
       <c r="C278" t="n">
-        <v>1.781691449789095</v>
+        <v>-0.4609776766005949</v>
       </c>
       <c r="D278" t="n">
-        <v>1.359387909407331</v>
+        <v>0.4023720160278118</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-0.1170890031646574</v>
+        <v>-0.1701027284941352</v>
       </c>
       <c r="B279" t="n">
-        <v>0.548647175222351</v>
+        <v>-0.6556615861928334</v>
       </c>
       <c r="C279" t="n">
-        <v>0.4377120780912919</v>
+        <v>-1.73204165472077</v>
       </c>
       <c r="D279" t="n">
-        <v>0.8764619143667021</v>
+        <v>-0.035529584018689</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.5021147297753508</v>
+        <v>-0.4399488328255836</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.9250764254602326</v>
+        <v>-0.2050638623114935</v>
       </c>
       <c r="C280" t="n">
-        <v>0.3138785123489575</v>
+        <v>-2.342094725710904</v>
       </c>
       <c r="D280" t="n">
-        <v>0.5707858012671447</v>
+        <v>-0.6588919407349549</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.9610232513923855</v>
+        <v>-0.6237295193032371</v>
       </c>
       <c r="B281" t="n">
-        <v>0.105457871522721</v>
+        <v>-0.009971940887705255</v>
       </c>
       <c r="C281" t="n">
-        <v>0.6494348742419562</v>
+        <v>-2.340741618451839</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.4195147035007887</v>
+        <v>0.4216158632656072</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.04328148957787703</v>
+        <v>0.8080115278017448</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.2828684934087315</v>
+        <v>-0.4598384955347996</v>
       </c>
       <c r="C282" t="n">
-        <v>1.769266438460378</v>
+        <v>-2.54873800963132</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.2893966673190414</v>
+        <v>-1.325419327333683</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-0.2398628193921002</v>
+        <v>0.7522510963322633</v>
       </c>
       <c r="B283" t="n">
-        <v>0.5094731819101075</v>
+        <v>-0.2384316310303289</v>
       </c>
       <c r="C283" t="n">
-        <v>1.778727141113715</v>
+        <v>-0.5667227551263401</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.3850833086492204</v>
+        <v>0.9750524375137386</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-0.1201020577100822</v>
+        <v>0.5032456662654992</v>
       </c>
       <c r="B284" t="n">
-        <v>0.808166609396469</v>
+        <v>-0.7949539675922208</v>
       </c>
       <c r="C284" t="n">
-        <v>1.415799930684233</v>
+        <v>0.6032571593740271</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.3613838294817623</v>
+        <v>-0.5631462473164315</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-0.5506614424504586</v>
+        <v>0.3996565830535714</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.4456862187826849</v>
+        <v>0.3070226760284023</v>
       </c>
       <c r="C285" t="n">
-        <v>1.267021859252312</v>
+        <v>1.060268824533402</v>
       </c>
       <c r="D285" t="n">
-        <v>0.246671617797542</v>
+        <v>-1.091536274538493</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.6467706615465849</v>
+        <v>-0.7026867174372757</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.5825466829759238</v>
+        <v>-0.5166936354044431</v>
       </c>
       <c r="C286" t="n">
-        <v>0.4657501384943675</v>
+        <v>1.254536699480067</v>
       </c>
       <c r="D286" t="n">
-        <v>0.2219124104172861</v>
+        <v>-0.2937503203931341</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-0.6473931912875257</v>
+        <v>0.0154417723679543</v>
       </c>
       <c r="B287" t="n">
-        <v>0.6315044491432371</v>
+        <v>-0.7607217158716837</v>
       </c>
       <c r="C287" t="n">
-        <v>0.6894203569744778</v>
+        <v>0.5485042458574745</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.6120757714000806</v>
+        <v>-1.033102388737147</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-0.6298246266909326</v>
+        <v>0.261491982957339</v>
       </c>
       <c r="B288" t="n">
-        <v>0.1537624206048853</v>
+        <v>0.1965512064968178</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1919225644190455</v>
+        <v>-0.09651135774472348</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.2573044730007793</v>
+        <v>-1.345322718951434</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.01938212840626274</v>
+        <v>0.273312556004621</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.5072726209575715</v>
+        <v>0.7719848602678292</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.6811029220215528</v>
+        <v>0.1219746927201061</v>
       </c>
       <c r="D289" t="n">
-        <v>0.196633057321905</v>
+        <v>-0.04689417586422004</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.2278248215206711</v>
+        <v>0.1408999355314684</v>
       </c>
       <c r="B290" t="n">
-        <v>0.04906616242596074</v>
+        <v>-0.4196463852675161</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.9422830297315136</v>
+        <v>0.7580488614877726</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.5684892873160028</v>
+        <v>0.9120086196838386</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-0.8582477389350454</v>
+        <v>-0.8868864762312134</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7841307140843341</v>
+        <v>0.4355486161824607</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.4965448872713595</v>
+        <v>0.6360418401282484</v>
       </c>
       <c r="D291" t="n">
-        <v>0.134755416807068</v>
+        <v>0.379090609999747</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.1528623883415103</v>
+        <v>-0.2711104377611333</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.6868202919902662</v>
+        <v>-0.9790741314643121</v>
       </c>
       <c r="C292" t="n">
-        <v>-1.286310889432954</v>
+        <v>-0.2022674738008295</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.9852080633784062</v>
+        <v>0.08314546266489511</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.9973235140277357</v>
+        <v>0.02281619045877181</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.5582790717758856</v>
+        <v>-0.2828754863614187</v>
       </c>
       <c r="C293" t="n">
-        <v>-1.060273778020984</v>
+        <v>-0.9709123018638232</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.4297938657933687</v>
+        <v>-0.9453430883579846</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.1093779935063162</v>
+        <v>0.7394588412936025</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3983775376717407</v>
+        <v>0.3565770588876602</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.1994847141502972</v>
+        <v>-0.7766352449471451</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.1424830488124247</v>
+        <v>-0.2543808899359559</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.05620517833963867</v>
+        <v>-0.2874153361791028</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.9122991328970269</v>
+        <v>0.9459595853101026</v>
       </c>
       <c r="C295" t="n">
-        <v>0.568962968290025</v>
+        <v>0.2002711852432815</v>
       </c>
       <c r="D295" t="n">
-        <v>0.3895539467000597</v>
+        <v>0.3894543627803231</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-0.4668698882283768</v>
+        <v>-0.3782327487149795</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.784831131305781</v>
+        <v>-0.4147564743733172</v>
       </c>
       <c r="C296" t="n">
-        <v>0.5105071712022453</v>
+        <v>0.494429594533899</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.6493124374099701</v>
+        <v>1.077296290603031</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-0.6989331494977</v>
+        <v>-0.06521567430184971</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.1688344356630653</v>
+        <v>0.104726162838394</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.3199208151858935</v>
+        <v>-0.1237544860851469</v>
       </c>
       <c r="D297" t="n">
-        <v>-1.633597575082149</v>
+        <v>0.3021883245989679</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.3143945603159453</v>
+        <v>-0.2885071283217233</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1419553345809073</v>
+        <v>-0.3930749632322246</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.9422713905441069</v>
+        <v>-0.3706045910828264</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.5329094505988858</v>
+        <v>-0.01420576741162979</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.3039188379405311</v>
+        <v>-0.5455810352185235</v>
       </c>
       <c r="B299" t="n">
-        <v>0.08432690755457362</v>
+        <v>0.1108298123097289</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.7180079320823219</v>
+        <v>-0.6147237171200657</v>
       </c>
       <c r="D299" t="n">
-        <v>0.362608435794343</v>
+        <v>-0.3308818996434789</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-0.7716727223579216</v>
+        <v>-0.4304414434127033</v>
       </c>
       <c r="B300" t="n">
-        <v>0.4342568791849504</v>
+        <v>-0.687391923541451</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.3634723989974823</v>
+        <v>-1.250124716700504</v>
       </c>
       <c r="D300" t="n">
-        <v>0.07825141261822732</v>
+        <v>0.004201144622686975</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-0.09008819894895259</v>
+        <v>-0.590737709317976</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.2313945701978344</v>
+        <v>-0.2562718362087977</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.9406807218771323</v>
+        <v>-1.993429337400799</v>
       </c>
       <c r="D301" t="n">
-        <v>0.2120931927545597</v>
+        <v>-0.8817750892499198</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.3358747054368103</v>
+        <v>-0.5923251941520549</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.6464798866835046</v>
+        <v>0.7077473234842031</v>
       </c>
       <c r="C302" t="n">
-        <v>-1.234552781914865</v>
+        <v>-2.039497512810409</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.2782243515880465</v>
+        <v>0.06310351237829072</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>-0.7093178266088445</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.2904700001319276</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-2.774231908887055</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2627687455169048</v>
       </c>
     </row>
   </sheetData>
